--- a/www.eia.gov/electricity/monthly/xls/table_1_13_a.xlsx
+++ b/www.eia.gov/electricity/monthly/xls/table_1_13_a.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eiaSAScomp\erus_share\EPM\Output\Monthly_Output\EPM_2016_10\EPM_2016_10P_Run_at_2016_12_22_094008\Output\XLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eiaSAScomp\erus_share\EPM\Output\Monthly_Output\EPM_2016_11\EPM_2016_11P_Run_at_2017_01_19_170034\Output\XLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,12 +22,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="81">
   <si>
     <t>Table 1.13.A. Utility Scale Facility Net Generation from Other Energy Sources</t>
   </si>
   <si>
-    <t>by State, by Sector, October 2016 and 2015 (Thousand Megawatthours)</t>
+    <t>by State, by Sector, November 2016 and 2015 (Thousand Megawatthours)</t>
   </si>
   <si>
     <t/>
@@ -67,10 +67,10 @@
 and State</t>
   </si>
   <si>
-    <t>October 2016</t>
-  </si>
-  <si>
-    <t>October 2015</t>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>November 2015</t>
   </si>
   <si>
     <t>Percentage
@@ -1392,13 +1392,13 @@
         <v>16</v>
       </c>
       <c r="B7" s="10">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="C7" s="10">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="D7" s="11">
-        <v>2.3E-2</v>
+        <v>-2.1999999999999999E-2</v>
       </c>
       <c r="E7" s="10">
         <v>0</v>
@@ -1407,10 +1407,10 @@
         <v>0</v>
       </c>
       <c r="G7" s="10">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="H7" s="10">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="I7" s="10">
         <v>7</v>
@@ -1419,10 +1419,10 @@
         <v>7</v>
       </c>
       <c r="K7" s="10">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L7" s="10">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -1430,13 +1430,13 @@
         <v>17</v>
       </c>
       <c r="B8" s="13">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C8" s="13">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D8" s="14">
-        <v>0.08</v>
+        <v>-8.9999999999999993E-3</v>
       </c>
       <c r="E8" s="13">
         <v>0</v>
@@ -1445,10 +1445,10 @@
         <v>0</v>
       </c>
       <c r="G8" s="13">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="H8" s="13">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="I8" s="13">
         <v>0</v>
@@ -1468,13 +1468,13 @@
         <v>18</v>
       </c>
       <c r="B9" s="13">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C9" s="13">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="D9" s="14">
-        <v>2.8000000000000001E-2</v>
+        <v>4.1000000000000002E-2</v>
       </c>
       <c r="E9" s="13">
         <v>0</v>
@@ -1483,10 +1483,10 @@
         <v>0</v>
       </c>
       <c r="G9" s="13">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="H9" s="13">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="I9" s="13">
         <v>7</v>
@@ -1495,10 +1495,10 @@
         <v>7</v>
       </c>
       <c r="K9" s="13">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L9" s="13">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -1506,13 +1506,13 @@
         <v>19</v>
       </c>
       <c r="B10" s="13">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C10" s="13">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D10" s="14">
-        <v>-1.0999999999999999E-2</v>
+        <v>-6.2E-2</v>
       </c>
       <c r="E10" s="13">
         <v>0</v>
@@ -1521,10 +1521,10 @@
         <v>0</v>
       </c>
       <c r="G10" s="13">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="H10" s="13">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="I10" s="13">
         <v>0</v>
@@ -1544,13 +1544,13 @@
         <v>20</v>
       </c>
       <c r="B11" s="13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C11" s="13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D11" s="14">
-        <v>3.1E-2</v>
+        <v>0.03</v>
       </c>
       <c r="E11" s="13">
         <v>0</v>
@@ -1559,10 +1559,10 @@
         <v>0</v>
       </c>
       <c r="G11" s="13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H11" s="13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I11" s="13">
         <v>0</v>
@@ -1658,13 +1658,13 @@
         <v>24</v>
       </c>
       <c r="B14" s="10">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C14" s="10">
-        <v>200</v>
+        <v>215</v>
       </c>
       <c r="D14" s="11">
-        <v>-6.7000000000000004E-2</v>
+        <v>-0.13200000000000001</v>
       </c>
       <c r="E14" s="10">
         <v>0</v>
@@ -1676,13 +1676,13 @@
         <v>158</v>
       </c>
       <c r="H14" s="10">
-        <v>158</v>
+        <v>169</v>
       </c>
       <c r="I14" s="10">
         <v>28</v>
       </c>
       <c r="J14" s="10">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="K14" s="10">
         <v>0</v>
@@ -1696,13 +1696,13 @@
         <v>25</v>
       </c>
       <c r="B15" s="13">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C15" s="13">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D15" s="14">
-        <v>-0.14000000000000001</v>
+        <v>-0.14599999999999999</v>
       </c>
       <c r="E15" s="13">
         <v>0</v>
@@ -1711,16 +1711,16 @@
         <v>0</v>
       </c>
       <c r="G15" s="13">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H15" s="13">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="I15" s="13">
+        <v>11</v>
+      </c>
+      <c r="J15" s="13">
         <v>12</v>
-      </c>
-      <c r="J15" s="13">
-        <v>11</v>
       </c>
       <c r="K15" s="13">
         <v>0</v>
@@ -1734,13 +1734,13 @@
         <v>26</v>
       </c>
       <c r="B16" s="13">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C16" s="13">
         <v>79</v>
       </c>
       <c r="D16" s="14">
-        <v>-1.9E-2</v>
+        <v>-4.2999999999999997E-2</v>
       </c>
       <c r="E16" s="13">
         <v>0</v>
@@ -1749,10 +1749,10 @@
         <v>0</v>
       </c>
       <c r="G16" s="13">
+        <v>59</v>
+      </c>
+      <c r="H16" s="13">
         <v>61</v>
-      </c>
-      <c r="H16" s="13">
-        <v>60</v>
       </c>
       <c r="I16" s="13">
         <v>17</v>
@@ -1772,13 +1772,13 @@
         <v>27</v>
       </c>
       <c r="B17" s="13">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C17" s="13">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="D17" s="14">
-        <v>-6.5000000000000002E-2</v>
+        <v>-0.20699999999999999</v>
       </c>
       <c r="E17" s="13">
         <v>0</v>
@@ -1787,16 +1787,16 @@
         <v>0</v>
       </c>
       <c r="G17" s="13">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="H17" s="13">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="I17" s="13">
         <v>0</v>
       </c>
       <c r="J17" s="13">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="K17" s="13">
         <v>0</v>
@@ -1810,25 +1810,25 @@
         <v>28</v>
       </c>
       <c r="B18" s="10">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C18" s="10">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D18" s="11">
-        <v>-0.27900000000000003</v>
+        <v>-0.26900000000000002</v>
       </c>
       <c r="E18" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18" s="10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G18" s="10">
         <v>10</v>
       </c>
       <c r="H18" s="10">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I18" s="10">
         <v>14</v>
@@ -1837,10 +1837,10 @@
         <v>19</v>
       </c>
       <c r="K18" s="10">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="L18" s="10">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
@@ -1848,13 +1848,13 @@
         <v>29</v>
       </c>
       <c r="B19" s="13">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C19" s="13">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D19" s="14">
-        <v>-0.111</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="E19" s="13">
         <v>0</v>
@@ -1863,7 +1863,7 @@
         <v>0</v>
       </c>
       <c r="G19" s="13">
-        <v>-0.45</v>
+        <v>-0.31</v>
       </c>
       <c r="H19" s="13">
         <v>-1</v>
@@ -1878,7 +1878,7 @@
         <v>19</v>
       </c>
       <c r="L19" s="13">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
@@ -1886,13 +1886,13 @@
         <v>30</v>
       </c>
       <c r="B20" s="13">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C20" s="13">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D20" s="14">
-        <v>-0.38</v>
+        <v>-0.46400000000000002</v>
       </c>
       <c r="E20" s="13">
         <v>0</v>
@@ -1913,10 +1913,10 @@
         <v>2</v>
       </c>
       <c r="K20" s="13">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L20" s="13">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
@@ -1924,13 +1924,13 @@
         <v>32</v>
       </c>
       <c r="B21" s="13">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C21" s="13">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D21" s="14">
-        <v>-0.31900000000000001</v>
+        <v>-0.29299999999999998</v>
       </c>
       <c r="E21" s="13">
         <v>0</v>
@@ -1942,19 +1942,19 @@
         <v>11</v>
       </c>
       <c r="H21" s="13">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I21" s="13">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J21" s="13">
         <v>18</v>
       </c>
       <c r="K21" s="13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L21" s="13">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
@@ -1965,19 +1965,19 @@
         <v>1</v>
       </c>
       <c r="C22" s="13">
+        <v>-0.34</v>
+      </c>
+      <c r="D22" s="14">
+        <v>-4.12</v>
+      </c>
+      <c r="E22" s="13">
+        <v>0</v>
+      </c>
+      <c r="F22" s="13">
         <v>-0.31</v>
       </c>
-      <c r="D22" s="14">
-        <v>-5.056</v>
-      </c>
-      <c r="E22" s="13">
-        <v>0</v>
-      </c>
-      <c r="F22" s="13">
-        <v>-0.28000000000000003</v>
-      </c>
-      <c r="G22" s="13">
-        <v>0</v>
+      <c r="G22" s="13" t="s">
+        <v>31</v>
       </c>
       <c r="H22" s="13">
         <v>-1</v>
@@ -2000,19 +2000,19 @@
         <v>34</v>
       </c>
       <c r="B23" s="13">
+        <v>5</v>
+      </c>
+      <c r="C23" s="13">
         <v>4</v>
       </c>
-      <c r="C23" s="13">
-        <v>6</v>
-      </c>
       <c r="D23" s="14">
-        <v>-0.26</v>
+        <v>0.23599999999999999</v>
       </c>
       <c r="E23" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23" s="13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G23" s="13">
         <v>0</v>
@@ -2030,7 +2030,7 @@
         <v>31</v>
       </c>
       <c r="L23" s="13">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
@@ -2038,25 +2038,25 @@
         <v>35</v>
       </c>
       <c r="B24" s="10">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C24" s="10">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D24" s="11">
-        <v>-0.156</v>
+        <v>-0.14000000000000001</v>
       </c>
       <c r="E24" s="10">
         <v>19</v>
       </c>
       <c r="F24" s="10">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G24" s="10">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H24" s="10">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I24" s="10" t="s">
         <v>31</v>
@@ -2075,14 +2075,14 @@
       <c r="A25" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="B25" s="13">
-        <v>0</v>
+      <c r="B25" s="13" t="s">
+        <v>31</v>
       </c>
       <c r="C25" s="13">
         <v>1</v>
       </c>
-      <c r="D25" s="14">
-        <v>-1</v>
+      <c r="D25" s="14" t="s">
+        <v>31</v>
       </c>
       <c r="E25" s="13">
         <v>0</v>
@@ -2102,8 +2102,8 @@
       <c r="J25" s="13">
         <v>0</v>
       </c>
-      <c r="K25" s="13">
-        <v>0</v>
+      <c r="K25" s="13" t="s">
+        <v>31</v>
       </c>
       <c r="L25" s="13">
         <v>1</v>
@@ -2152,25 +2152,25 @@
         <v>38</v>
       </c>
       <c r="B27" s="13">
+        <v>33</v>
+      </c>
+      <c r="C27" s="13">
         <v>34</v>
       </c>
-      <c r="C27" s="13">
-        <v>36</v>
-      </c>
       <c r="D27" s="14">
-        <v>-7.2999999999999995E-2</v>
+        <v>-4.5999999999999999E-2</v>
       </c>
       <c r="E27" s="13">
         <v>15</v>
       </c>
       <c r="F27" s="13">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G27" s="13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H27" s="13">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I27" s="13" t="s">
         <v>31</v>
@@ -2182,7 +2182,7 @@
         <v>31</v>
       </c>
       <c r="L27" s="13">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
@@ -2190,19 +2190,19 @@
         <v>39</v>
       </c>
       <c r="B28" s="13">
-        <v>0.26</v>
+        <v>0.34</v>
       </c>
       <c r="C28" s="13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D28" s="14">
-        <v>-0.90100000000000002</v>
+        <v>-0.90200000000000002</v>
       </c>
       <c r="E28" s="13">
-        <v>0.26</v>
+        <v>0.34</v>
       </c>
       <c r="F28" s="13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G28" s="13">
         <v>0</v>
@@ -2265,17 +2265,17 @@
       <c r="A30" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B30" s="13">
-        <v>3</v>
+      <c r="B30" s="13" t="s">
+        <v>31</v>
       </c>
       <c r="C30" s="13">
         <v>4</v>
       </c>
-      <c r="D30" s="14">
-        <v>-9.4E-2</v>
-      </c>
-      <c r="E30" s="13">
-        <v>3</v>
+      <c r="D30" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>31</v>
       </c>
       <c r="F30" s="13">
         <v>4</v>
@@ -2342,13 +2342,13 @@
         <v>43</v>
       </c>
       <c r="B32" s="10">
-        <v>367</v>
+        <v>379</v>
       </c>
       <c r="C32" s="10">
-        <v>398</v>
+        <v>361</v>
       </c>
       <c r="D32" s="11">
-        <v>-7.6999999999999999E-2</v>
+        <v>5.0999999999999997E-2</v>
       </c>
       <c r="E32" s="10">
         <v>0</v>
@@ -2357,13 +2357,13 @@
         <v>0</v>
       </c>
       <c r="G32" s="10">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="H32" s="10">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="I32" s="10">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J32" s="10">
         <v>18</v>
@@ -2372,7 +2372,7 @@
         <v>159</v>
       </c>
       <c r="L32" s="10">
-        <v>179</v>
+        <v>144</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
@@ -2456,13 +2456,13 @@
         <v>46</v>
       </c>
       <c r="B35" s="13">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="C35" s="13">
-        <v>258</v>
+        <v>213</v>
       </c>
       <c r="D35" s="14">
-        <v>-6.7000000000000004E-2</v>
+        <v>0.14699999999999999</v>
       </c>
       <c r="E35" s="13">
         <v>0</v>
@@ -2471,10 +2471,10 @@
         <v>0</v>
       </c>
       <c r="G35" s="13">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="H35" s="13">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="I35" s="13">
         <v>0</v>
@@ -2483,10 +2483,10 @@
         <v>0</v>
       </c>
       <c r="K35" s="13">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="L35" s="13">
-        <v>139</v>
+        <v>102</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
@@ -2494,13 +2494,13 @@
         <v>47</v>
       </c>
       <c r="B36" s="13">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C36" s="13">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D36" s="14">
-        <v>-0.53100000000000003</v>
+        <v>-0.42</v>
       </c>
       <c r="E36" s="13">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="K36" s="13">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="L36" s="13">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
@@ -2532,13 +2532,13 @@
         <v>48</v>
       </c>
       <c r="B37" s="13">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C37" s="13">
         <v>27</v>
       </c>
       <c r="D37" s="14">
-        <v>-1.4999999999999999E-2</v>
+        <v>8.4000000000000005E-2</v>
       </c>
       <c r="E37" s="13">
         <v>0</v>
@@ -2547,7 +2547,7 @@
         <v>0</v>
       </c>
       <c r="G37" s="13">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H37" s="13">
         <v>27</v>
@@ -2573,10 +2573,10 @@
         <v>54</v>
       </c>
       <c r="C38" s="13">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D38" s="14">
-        <v>-0.11899999999999999</v>
+        <v>-0.13200000000000001</v>
       </c>
       <c r="E38" s="13">
         <v>0</v>
@@ -2588,7 +2588,7 @@
         <v>32</v>
       </c>
       <c r="H38" s="13">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I38" s="13">
         <v>0</v>
@@ -2608,13 +2608,13 @@
         <v>50</v>
       </c>
       <c r="B39" s="13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C39" s="13">
         <v>3</v>
       </c>
       <c r="D39" s="14">
-        <v>4.4999999999999998E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="E39" s="13">
         <v>0</v>
@@ -2626,7 +2626,7 @@
         <v>31</v>
       </c>
       <c r="H39" s="13">
-        <v>0.16</v>
+        <v>0.32</v>
       </c>
       <c r="I39" s="13">
         <v>0</v>
@@ -2646,13 +2646,13 @@
         <v>51</v>
       </c>
       <c r="B40" s="13">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C40" s="13">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="D40" s="14">
-        <v>-0.01</v>
+        <v>-5.6000000000000001E-2</v>
       </c>
       <c r="E40" s="13">
         <v>0</v>
@@ -2661,13 +2661,13 @@
         <v>0</v>
       </c>
       <c r="G40" s="13">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H40" s="13">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="I40" s="13">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J40" s="13">
         <v>18</v>
@@ -2722,19 +2722,19 @@
         <v>53</v>
       </c>
       <c r="B42" s="10">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C42" s="10">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D42" s="11">
-        <v>0.42399999999999999</v>
+        <v>-0.47599999999999998</v>
       </c>
       <c r="E42" s="10">
         <v>4</v>
       </c>
       <c r="F42" s="10">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G42" s="10">
         <v>0</v>
@@ -2748,8 +2748,8 @@
       <c r="J42" s="10">
         <v>0</v>
       </c>
-      <c r="K42" s="10">
-        <v>1</v>
+      <c r="K42" s="10" t="s">
+        <v>31</v>
       </c>
       <c r="L42" s="10">
         <v>2</v>
@@ -2801,16 +2801,16 @@
         <v>4</v>
       </c>
       <c r="C44" s="13">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D44" s="14">
-        <v>1.512</v>
+        <v>-0.45800000000000002</v>
       </c>
       <c r="E44" s="13">
         <v>4</v>
       </c>
       <c r="F44" s="13">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G44" s="13">
         <v>0</v>
@@ -2839,7 +2839,7 @@
         <v>31</v>
       </c>
       <c r="C45" s="13">
-        <v>1</v>
+        <v>0.34</v>
       </c>
       <c r="D45" s="14" t="s">
         <v>31</v>
@@ -2866,7 +2866,7 @@
         <v>31</v>
       </c>
       <c r="L45" s="13">
-        <v>1</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
@@ -2880,7 +2880,7 @@
         <v>2</v>
       </c>
       <c r="D46" s="14">
-        <v>-0.29499999999999998</v>
+        <v>-0.69499999999999995</v>
       </c>
       <c r="E46" s="13">
         <v>0</v>
@@ -2912,37 +2912,37 @@
         <v>58</v>
       </c>
       <c r="B47" s="10">
+        <v>116</v>
+      </c>
+      <c r="C47" s="10">
+        <v>155</v>
+      </c>
+      <c r="D47" s="11">
+        <v>-0.253</v>
+      </c>
+      <c r="E47" s="10">
+        <v>0</v>
+      </c>
+      <c r="F47" s="10">
+        <v>0</v>
+      </c>
+      <c r="G47" s="10">
+        <v>2</v>
+      </c>
+      <c r="H47" s="10">
+        <v>10</v>
+      </c>
+      <c r="I47" s="10">
+        <v>0</v>
+      </c>
+      <c r="J47" s="10">
+        <v>0</v>
+      </c>
+      <c r="K47" s="10">
         <v>114</v>
       </c>
-      <c r="C47" s="10">
-        <v>136</v>
-      </c>
-      <c r="D47" s="11">
-        <v>-0.16200000000000001</v>
-      </c>
-      <c r="E47" s="10">
-        <v>0</v>
-      </c>
-      <c r="F47" s="10">
-        <v>0</v>
-      </c>
-      <c r="G47" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="H47" s="10">
-        <v>11</v>
-      </c>
-      <c r="I47" s="10">
-        <v>0</v>
-      </c>
-      <c r="J47" s="10">
-        <v>0</v>
-      </c>
-      <c r="K47" s="10">
-        <v>112</v>
-      </c>
       <c r="L47" s="10">
-        <v>124</v>
+        <v>145</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
@@ -2950,13 +2950,13 @@
         <v>59</v>
       </c>
       <c r="B48" s="13">
-        <v>1</v>
+        <v>0.26</v>
       </c>
       <c r="C48" s="13">
         <v>1</v>
       </c>
       <c r="D48" s="14">
-        <v>-0.442</v>
+        <v>-0.78300000000000003</v>
       </c>
       <c r="E48" s="13">
         <v>0</v>
@@ -2977,7 +2977,7 @@
         <v>0</v>
       </c>
       <c r="K48" s="13">
-        <v>1</v>
+        <v>0.26</v>
       </c>
       <c r="L48" s="13">
         <v>1</v>
@@ -2988,13 +2988,13 @@
         <v>60</v>
       </c>
       <c r="B49" s="13">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C49" s="13">
-        <v>54</v>
+        <v>83</v>
       </c>
       <c r="D49" s="14">
-        <v>2E-3</v>
+        <v>-0.32800000000000001</v>
       </c>
       <c r="E49" s="13">
         <v>0</v>
@@ -3015,24 +3015,24 @@
         <v>0</v>
       </c>
       <c r="K49" s="13">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="L49" s="13">
-        <v>54</v>
+        <v>83</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="B50" s="13" t="s">
-        <v>31</v>
+      <c r="B50" s="13">
+        <v>2</v>
       </c>
       <c r="C50" s="13">
         <v>1</v>
       </c>
-      <c r="D50" s="14" t="s">
-        <v>31</v>
+      <c r="D50" s="14">
+        <v>1.4650000000000001</v>
       </c>
       <c r="E50" s="13">
         <v>0</v>
@@ -3041,7 +3041,7 @@
         <v>0</v>
       </c>
       <c r="G50" s="13">
-        <v>0.49</v>
+        <v>1</v>
       </c>
       <c r="H50" s="13">
         <v>0</v>
@@ -3064,13 +3064,13 @@
         <v>62</v>
       </c>
       <c r="B51" s="13">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C51" s="13">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="D51" s="14">
-        <v>-0.28000000000000003</v>
+        <v>-0.18</v>
       </c>
       <c r="E51" s="13">
         <v>0</v>
@@ -3082,7 +3082,7 @@
         <v>31</v>
       </c>
       <c r="H51" s="13">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I51" s="13">
         <v>0</v>
@@ -3091,10 +3091,10 @@
         <v>0</v>
       </c>
       <c r="K51" s="13">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L51" s="13">
-        <v>69</v>
+        <v>60</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
@@ -3102,25 +3102,25 @@
         <v>63</v>
       </c>
       <c r="B52" s="10">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C52" s="10">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="D52" s="11">
-        <v>-0.28199999999999997</v>
-      </c>
-      <c r="E52" s="10">
-        <v>0</v>
+        <v>-6.7000000000000004E-2</v>
+      </c>
+      <c r="E52" s="10" t="s">
+        <v>31</v>
       </c>
       <c r="F52" s="10">
-        <v>0.19</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="G52" s="10">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H52" s="10">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="I52" s="10">
         <v>0</v>
@@ -3129,10 +3129,10 @@
         <v>0</v>
       </c>
       <c r="K52" s="10">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L52" s="10">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
@@ -3181,7 +3181,7 @@
         <v>31</v>
       </c>
       <c r="C54" s="13">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D54" s="14" t="s">
         <v>31</v>
@@ -3208,21 +3208,21 @@
         <v>31</v>
       </c>
       <c r="L54" s="13">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="B55" s="13" t="s">
-        <v>31</v>
+      <c r="B55" s="13">
+        <v>6</v>
       </c>
       <c r="C55" s="13">
-        <v>9</v>
-      </c>
-      <c r="D55" s="14" t="s">
-        <v>31</v>
+        <v>7</v>
+      </c>
+      <c r="D55" s="14">
+        <v>-0.108</v>
       </c>
       <c r="E55" s="13">
         <v>0</v>
@@ -3242,11 +3242,11 @@
       <c r="J55" s="13">
         <v>0</v>
       </c>
-      <c r="K55" s="13" t="s">
-        <v>31</v>
+      <c r="K55" s="13">
+        <v>6</v>
       </c>
       <c r="L55" s="13">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
@@ -3254,13 +3254,13 @@
         <v>67</v>
       </c>
       <c r="B56" s="13">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C56" s="13">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D56" s="14">
-        <v>-0.16600000000000001</v>
+        <v>0.13</v>
       </c>
       <c r="E56" s="13">
         <v>0</v>
@@ -3269,10 +3269,10 @@
         <v>0</v>
       </c>
       <c r="G56" s="13">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H56" s="13">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="I56" s="13">
         <v>0</v>
@@ -3295,7 +3295,7 @@
         <v>0</v>
       </c>
       <c r="C57" s="13">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="D57" s="14">
         <v>-1</v>
@@ -3304,7 +3304,7 @@
         <v>0</v>
       </c>
       <c r="F57" s="13">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="G57" s="13">
         <v>0</v>
@@ -3329,20 +3329,20 @@
       <c r="A58" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="B58" s="13">
-        <v>0</v>
+      <c r="B58" s="13" t="s">
+        <v>31</v>
       </c>
       <c r="C58" s="13">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="D58" s="14">
-        <v>-1</v>
-      </c>
-      <c r="E58" s="13">
-        <v>0</v>
+        <v>0.06</v>
+      </c>
+      <c r="D58" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="E58" s="13" t="s">
+        <v>31</v>
       </c>
       <c r="F58" s="13">
-        <v>7.0000000000000007E-2</v>
+        <v>0.06</v>
       </c>
       <c r="G58" s="13">
         <v>0</v>
@@ -3368,13 +3368,13 @@
         <v>70</v>
       </c>
       <c r="B59" s="13">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C59" s="13">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D59" s="14">
-        <v>-0.14099999999999999</v>
+        <v>0.14099999999999999</v>
       </c>
       <c r="E59" s="13">
         <v>0</v>
@@ -3386,7 +3386,7 @@
         <v>31</v>
       </c>
       <c r="H59" s="13">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="I59" s="13">
         <v>0</v>
@@ -3395,10 +3395,10 @@
         <v>0</v>
       </c>
       <c r="K59" s="13">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L59" s="13">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
@@ -3444,13 +3444,13 @@
         <v>72</v>
       </c>
       <c r="B61" s="10">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C61" s="10">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D61" s="11">
-        <v>2.9000000000000001E-2</v>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="E61" s="10">
         <v>0</v>
@@ -3459,10 +3459,10 @@
         <v>-0.15</v>
       </c>
       <c r="G61" s="10">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H61" s="10">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I61" s="10">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>53</v>
       </c>
       <c r="L61" s="10">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
@@ -3482,13 +3482,13 @@
         <v>73</v>
       </c>
       <c r="B62" s="13">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C62" s="13">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D62" s="14">
-        <v>2.5999999999999999E-2</v>
+        <v>2.3E-2</v>
       </c>
       <c r="E62" s="13">
         <v>0</v>
@@ -3497,10 +3497,10 @@
         <v>-0.11</v>
       </c>
       <c r="G62" s="13">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H62" s="13">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I62" s="13">
         <v>0</v>
@@ -3512,7 +3512,7 @@
         <v>53</v>
       </c>
       <c r="L62" s="13">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
@@ -3523,10 +3523,10 @@
         <v>4</v>
       </c>
       <c r="C63" s="13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D63" s="14">
-        <v>0.2</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="E63" s="13">
         <v>0</v>
@@ -3538,7 +3538,7 @@
         <v>4</v>
       </c>
       <c r="H63" s="13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I63" s="13">
         <v>0</v>
@@ -3561,10 +3561,10 @@
         <v>5</v>
       </c>
       <c r="C64" s="13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D64" s="14">
-        <v>-4.7E-2</v>
+        <v>0.34399999999999997</v>
       </c>
       <c r="E64" s="13">
         <v>0</v>
@@ -3576,7 +3576,7 @@
         <v>5</v>
       </c>
       <c r="H64" s="13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I64" s="13">
         <v>0</v>
@@ -3596,31 +3596,31 @@
         <v>76</v>
       </c>
       <c r="B65" s="10">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C65" s="10">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D65" s="11">
-        <v>-0.29899999999999999</v>
+        <v>-0.48199999999999998</v>
       </c>
       <c r="E65" s="10">
         <v>0</v>
       </c>
       <c r="F65" s="10">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G65" s="10">
-        <v>0.38</v>
+        <v>0</v>
       </c>
       <c r="H65" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I65" s="10">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="J65" s="10">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K65" s="10">
         <v>0</v>
@@ -3637,7 +3637,7 @@
         <v>0</v>
       </c>
       <c r="C66" s="13">
-        <v>-0.18</v>
+        <v>-0.2</v>
       </c>
       <c r="D66" s="14">
         <v>-1</v>
@@ -3646,7 +3646,7 @@
         <v>0</v>
       </c>
       <c r="F66" s="13">
-        <v>-0.18</v>
+        <v>-0.2</v>
       </c>
       <c r="G66" s="13">
         <v>0</v>
@@ -3672,31 +3672,31 @@
         <v>78</v>
       </c>
       <c r="B67" s="13">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C67" s="13">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D67" s="14">
-        <v>-0.30299999999999999</v>
+        <v>-0.48499999999999999</v>
       </c>
       <c r="E67" s="13">
         <v>0</v>
       </c>
       <c r="F67" s="13">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G67" s="13">
-        <v>0.38</v>
+        <v>0</v>
       </c>
       <c r="H67" s="13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I67" s="13">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="J67" s="13">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K67" s="13">
         <v>0</v>
@@ -3710,37 +3710,37 @@
         <v>79</v>
       </c>
       <c r="B68" s="10">
-        <v>1083</v>
+        <v>1093</v>
       </c>
       <c r="C68" s="10">
-        <v>1204</v>
+        <v>1197</v>
       </c>
       <c r="D68" s="11">
-        <v>-0.10100000000000001</v>
+        <v>-8.6999999999999994E-2</v>
       </c>
       <c r="E68" s="10">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F68" s="10">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G68" s="10">
-        <v>566</v>
+        <v>576</v>
       </c>
       <c r="H68" s="10">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="I68" s="10">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="J68" s="10">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="K68" s="10">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="L68" s="10">
-        <v>478</v>
+        <v>456</v>
       </c>
     </row>
     <row r="69" spans="1:12" ht="135" customHeight="1" x14ac:dyDescent="0.25">
